--- a/biology/Zoologie/Cymbiohahnia_parens/Cymbiohahnia_parens.xlsx
+++ b/biology/Zoologie/Cymbiohahnia_parens/Cymbiohahnia_parens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cymbiohahnia
 Cymbiohahnia parens, unique représentant du genre Cymbiohahnia, est une espèce fossile d'araignées aranéomorphes de la famille des Hahniidae.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique, de Bitterfeld en Saxe-Anhalt en Allemagne et de Rivne en Ukraine. Elle date du Paléogène[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été découverte dans de l'ambre de la mer Baltique, de Bitterfeld en Saxe-Anhalt en Allemagne et de Rivne en Ukraine. Elle date du Paléogène.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Wunderlich, 2004 : Fossil spiders of the family Dictynidae s. l., including Cryphoecinae and Hahniinae in Baltic and Dominican amber and copal from Madagascar, and on selected extant Holarctic taxa, with new descriptions and diagnoses. Beiträge zur Araneologie, vol. 3, p. 1380–1482.</t>
         </is>
